--- a/biology/Zoologie/Diplodactylus_tessellatus/Diplodactylus_tessellatus.xlsx
+++ b/biology/Zoologie/Diplodactylus_tessellatus/Diplodactylus_tessellatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplodactylus tessellatus est une espèce de gecko de la famille des Diplodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplodactylus tessellatus est une espèce de gecko de la famille des Diplodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre en Australie-Méridionale, au Territoire du Nord, au Queensland, en Nouvelle-Galles du Sud et au Victoria.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Australie-Méridionale, au Territoire du Nord, au Queensland, en Nouvelle-Galles du Sud et au Victoria.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gecko nocturne est relativement trapu, avec une queue courte et massive et des écailles apparentes. Il est marron-vert pale, parfois orangé (selon les individus), avec de nombreux points plus sombres.
 Les mâles présentent des renflements à la base de la queue, logement des hémipénis.
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Günther, 1875 : A list of the saurians of Australia and New Zealand in Richardson &amp; Gray, 1875 : The zoology of the voyage of H.M.S. Erebus and Terror, during the years 1839 to 1843. By authority of the Lords Commissioners of the Admiralty, E. W. Janson, London, vol. 2, p. 9-19 (texte intégral).</t>
         </is>
